--- a/Subject Demographic Survey 4.29.15.xlsx
+++ b/Subject Demographic Survey 4.29.15.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
   <si>
     <t>Gender</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>SP18S2</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -325,8 +334,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,7 +373,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -372,6 +383,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -381,6 +393,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -710,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1120,12 +1133,23 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1135,8 +1159,23 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1146,8 +1185,23 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1157,8 +1211,23 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1168,8 +1237,23 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -1179,8 +1263,23 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1190,8 +1289,23 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1201,8 +1315,23 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1212,8 +1341,23 @@
       <c r="C24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1223,8 +1367,23 @@
       <c r="C25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1235,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1246,7 +1405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1257,7 +1416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1268,7 +1427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -1279,7 +1438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1290,7 +1449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
